--- a/Stocks/ABAN.xlsx
+++ b/Stocks/ABAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -597,11 +597,10 @@
         <v>223</v>
       </c>
       <c r="G2">
-        <f>_xll.TA_TYPPRICE(D2,E2,F2)</f>
         <v>223.38333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +608,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +624,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +656,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +668,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -729,7 +728,6 @@
         <v>222</v>
       </c>
       <c r="G3">
-        <f>_xll.TA_TYPPRICE(D3,E3,F3)</f>
         <v>222.38333333333333</v>
       </c>
       <c r="H3" t="e">
@@ -854,7 +852,6 @@
         <v>223</v>
       </c>
       <c r="G4">
-        <f>_xll.TA_TYPPRICE(D4,E4,F4)</f>
         <v>223.86666666666667</v>
       </c>
       <c r="H4">
@@ -979,7 +976,6 @@
         <v>218</v>
       </c>
       <c r="G5">
-        <f>_xll.TA_TYPPRICE(D5,E5,F5)</f>
         <v>218.81666666666669</v>
       </c>
       <c r="H5">
@@ -1104,7 +1100,6 @@
         <v>220</v>
       </c>
       <c r="G6">
-        <f>_xll.TA_TYPPRICE(D6,E6,F6)</f>
         <v>219.41666666666666</v>
       </c>
       <c r="H6">
@@ -1229,7 +1224,6 @@
         <v>219</v>
       </c>
       <c r="G7">
-        <f>_xll.TA_TYPPRICE(D7,E7,F7)</f>
         <v>220.06666666666669</v>
       </c>
       <c r="H7">
@@ -1354,7 +1348,6 @@
         <v>219</v>
       </c>
       <c r="G8">
-        <f>_xll.TA_TYPPRICE(D8,E8,F8)</f>
         <v>219.51666666666665</v>
       </c>
       <c r="H8">
@@ -1479,7 +1472,6 @@
         <v>224</v>
       </c>
       <c r="G9">
-        <f>_xll.TA_TYPPRICE(D9,E9,F9)</f>
         <v>223.33333333333334</v>
       </c>
       <c r="H9">
@@ -1604,7 +1596,6 @@
         <v>221</v>
       </c>
       <c r="G10">
-        <f>_xll.TA_TYPPRICE(D10,E10,F10)</f>
         <v>222.1</v>
       </c>
       <c r="H10">
@@ -1729,7 +1720,6 @@
         <v>223</v>
       </c>
       <c r="G11">
-        <f>_xll.TA_TYPPRICE(D11,E11,F11)</f>
         <v>222.91666666666666</v>
       </c>
       <c r="H11">
@@ -1854,7 +1844,6 @@
         <v>224</v>
       </c>
       <c r="G12">
-        <f>_xll.TA_TYPPRICE(D12,E12,F12)</f>
         <v>223.21666666666667</v>
       </c>
       <c r="H12">
@@ -1979,7 +1968,6 @@
         <v>220</v>
       </c>
       <c r="G13">
-        <f>_xll.TA_TYPPRICE(D13,E13,F13)</f>
         <v>221.36666666666667</v>
       </c>
       <c r="H13">
@@ -2104,7 +2092,6 @@
         <v>216</v>
       </c>
       <c r="G14">
-        <f>_xll.TA_TYPPRICE(D14,E14,F14)</f>
         <v>217</v>
       </c>
       <c r="H14">
@@ -2229,7 +2216,6 @@
         <v>214</v>
       </c>
       <c r="G15">
-        <f>_xll.TA_TYPPRICE(D15,E15,F15)</f>
         <v>215.75</v>
       </c>
       <c r="H15">
@@ -2354,7 +2340,6 @@
         <v>214</v>
       </c>
       <c r="G16">
-        <f>_xll.TA_TYPPRICE(D16,E16,F16)</f>
         <v>215.33333333333334</v>
       </c>
       <c r="H16">
@@ -2479,7 +2464,6 @@
         <v>203</v>
       </c>
       <c r="G17">
-        <f>_xll.TA_TYPPRICE(D17,E17,F17)</f>
         <v>207.9</v>
       </c>
       <c r="H17">
@@ -2604,7 +2588,6 @@
         <v>195</v>
       </c>
       <c r="G18">
-        <f>_xll.TA_TYPPRICE(D18,E18,F18)</f>
         <v>198.35</v>
       </c>
       <c r="H18">
@@ -2729,7 +2712,6 @@
         <v>194</v>
       </c>
       <c r="G19">
-        <f>_xll.TA_TYPPRICE(D19,E19,F19)</f>
         <v>194.95000000000002</v>
       </c>
       <c r="H19">
@@ -2854,7 +2836,6 @@
         <v>198</v>
       </c>
       <c r="G20">
-        <f>_xll.TA_TYPPRICE(D20,E20,F20)</f>
         <v>196.43333333333331</v>
       </c>
       <c r="H20">
@@ -2979,7 +2960,6 @@
         <v>190</v>
       </c>
       <c r="G21">
-        <f>_xll.TA_TYPPRICE(D21,E21,F21)</f>
         <v>192.29999999999998</v>
       </c>
       <c r="H21">
@@ -3104,7 +3084,6 @@
         <v>180</v>
       </c>
       <c r="G22">
-        <f>_xll.TA_TYPPRICE(D22,E22,F22)</f>
         <v>182.66666666666666</v>
       </c>
       <c r="H22">
@@ -3229,7 +3208,6 @@
         <v>177</v>
       </c>
       <c r="G23">
-        <f>_xll.TA_TYPPRICE(D23,E23,F23)</f>
         <v>178.91666666666666</v>
       </c>
       <c r="H23">
@@ -3354,7 +3332,6 @@
         <v>182</v>
       </c>
       <c r="G24">
-        <f>_xll.TA_TYPPRICE(D24,E24,F24)</f>
         <v>180.65</v>
       </c>
       <c r="H24">
@@ -3479,7 +3456,6 @@
         <v>180</v>
       </c>
       <c r="G25">
-        <f>_xll.TA_TYPPRICE(D25,E25,F25)</f>
         <v>180.83333333333334</v>
       </c>
       <c r="H25">
@@ -3604,7 +3580,6 @@
         <v>181</v>
       </c>
       <c r="G26">
-        <f>_xll.TA_TYPPRICE(D26,E26,F26)</f>
         <v>181.46666666666667</v>
       </c>
       <c r="H26">
@@ -3729,7 +3704,6 @@
         <v>183</v>
       </c>
       <c r="G27">
-        <f>_xll.TA_TYPPRICE(D27,E27,F27)</f>
         <v>181.68333333333331</v>
       </c>
       <c r="H27">
@@ -3854,7 +3828,6 @@
         <v>185</v>
       </c>
       <c r="G28">
-        <f>_xll.TA_TYPPRICE(D28,E28,F28)</f>
         <v>185</v>
       </c>
       <c r="H28">
@@ -3979,7 +3952,6 @@
         <v>183</v>
       </c>
       <c r="G29">
-        <f>_xll.TA_TYPPRICE(D29,E29,F29)</f>
         <v>183.11666666666667</v>
       </c>
       <c r="H29">
@@ -4104,7 +4076,6 @@
         <v>182</v>
       </c>
       <c r="G30">
-        <f>_xll.TA_TYPPRICE(D30,E30,F30)</f>
         <v>182.35</v>
       </c>
       <c r="H30">
@@ -4229,7 +4200,6 @@
         <v>181</v>
       </c>
       <c r="G31">
-        <f>_xll.TA_TYPPRICE(D31,E31,F31)</f>
         <v>181.65</v>
       </c>
       <c r="H31">
@@ -4354,7 +4324,6 @@
         <v>180</v>
       </c>
       <c r="G32">
-        <f>_xll.TA_TYPPRICE(D32,E32,F32)</f>
         <v>180.9</v>
       </c>
       <c r="H32">
@@ -4479,7 +4448,6 @@
         <v>172</v>
       </c>
       <c r="G33">
-        <f>_xll.TA_TYPPRICE(D33,E33,F33)</f>
         <v>174.61666666666667</v>
       </c>
       <c r="H33">
@@ -4604,7 +4572,6 @@
         <v>173</v>
       </c>
       <c r="G34">
-        <f>_xll.TA_TYPPRICE(D34,E34,F34)</f>
         <v>173.15</v>
       </c>
       <c r="H34">
@@ -4729,7 +4696,6 @@
         <v>194</v>
       </c>
       <c r="G35">
-        <f>_xll.TA_TYPPRICE(D35,E35,F35)</f>
         <v>188.93333333333331</v>
       </c>
       <c r="H35">
@@ -4854,7 +4820,6 @@
         <v>190</v>
       </c>
       <c r="G36">
-        <f>_xll.TA_TYPPRICE(D36,E36,F36)</f>
         <v>191.43333333333331</v>
       </c>
       <c r="H36">
@@ -4979,7 +4944,6 @@
         <v>193</v>
       </c>
       <c r="G37">
-        <f>_xll.TA_TYPPRICE(D37,E37,F37)</f>
         <v>192.78333333333333</v>
       </c>
       <c r="H37">
@@ -5104,7 +5068,6 @@
         <v>189</v>
       </c>
       <c r="G38">
-        <f>_xll.TA_TYPPRICE(D38,E38,F38)</f>
         <v>190.41666666666666</v>
       </c>
       <c r="H38">
@@ -5229,7 +5192,6 @@
         <v>188</v>
       </c>
       <c r="G39">
-        <f>_xll.TA_TYPPRICE(D39,E39,F39)</f>
         <v>189.16666666666666</v>
       </c>
       <c r="H39">
@@ -5354,7 +5316,6 @@
         <v>188</v>
       </c>
       <c r="G40">
-        <f>_xll.TA_TYPPRICE(D40,E40,F40)</f>
         <v>187.73333333333335</v>
       </c>
       <c r="H40">
@@ -5479,7 +5440,6 @@
         <v>183</v>
       </c>
       <c r="G41">
-        <f>_xll.TA_TYPPRICE(D41,E41,F41)</f>
         <v>184.63333333333333</v>
       </c>
       <c r="H41">
@@ -5604,7 +5564,6 @@
         <v>182</v>
       </c>
       <c r="G42">
-        <f>_xll.TA_TYPPRICE(D42,E42,F42)</f>
         <v>182.48333333333335</v>
       </c>
       <c r="H42">
@@ -5729,7 +5688,6 @@
         <v>188</v>
       </c>
       <c r="G43">
-        <f>_xll.TA_TYPPRICE(D43,E43,F43)</f>
         <v>189.20000000000002</v>
       </c>
       <c r="H43">
@@ -5854,7 +5812,6 @@
         <v>188</v>
       </c>
       <c r="G44">
-        <f>_xll.TA_TYPPRICE(D44,E44,F44)</f>
         <v>188.26666666666665</v>
       </c>
       <c r="H44">
@@ -5979,7 +5936,6 @@
         <v>187</v>
       </c>
       <c r="G45">
-        <f>_xll.TA_TYPPRICE(D45,E45,F45)</f>
         <v>187.4</v>
       </c>
       <c r="H45">
@@ -6104,7 +6060,6 @@
         <v>187</v>
       </c>
       <c r="G46">
-        <f>_xll.TA_TYPPRICE(D46,E46,F46)</f>
         <v>188.31666666666669</v>
       </c>
       <c r="H46">
@@ -6229,7 +6184,6 @@
         <v>188</v>
       </c>
       <c r="G47">
-        <f>_xll.TA_TYPPRICE(D47,E47,F47)</f>
         <v>188.58333333333334</v>
       </c>
       <c r="H47">
@@ -6354,7 +6308,6 @@
         <v>189</v>
       </c>
       <c r="G48">
-        <f>_xll.TA_TYPPRICE(D48,E48,F48)</f>
         <v>189.1</v>
       </c>
       <c r="H48">
@@ -6479,7 +6432,6 @@
         <v>191</v>
       </c>
       <c r="G49">
-        <f>_xll.TA_TYPPRICE(D49,E49,F49)</f>
         <v>190.65</v>
       </c>
       <c r="H49">
@@ -6604,7 +6556,6 @@
         <v>189</v>
       </c>
       <c r="G50">
-        <f>_xll.TA_TYPPRICE(D50,E50,F50)</f>
         <v>188.58333333333334</v>
       </c>
       <c r="H50">
@@ -6729,7 +6680,6 @@
         <v>191</v>
       </c>
       <c r="G51">
-        <f>_xll.TA_TYPPRICE(D51,E51,F51)</f>
         <v>191.66666666666666</v>
       </c>
       <c r="H51">
@@ -6854,7 +6804,6 @@
         <v>191</v>
       </c>
       <c r="G52">
-        <f>_xll.TA_TYPPRICE(D52,E52,F52)</f>
         <v>191.35</v>
       </c>
       <c r="H52">
@@ -6979,7 +6928,6 @@
         <v>189</v>
       </c>
       <c r="G53">
-        <f>_xll.TA_TYPPRICE(D53,E53,F53)</f>
         <v>190.35</v>
       </c>
       <c r="H53">
@@ -7104,7 +7052,6 @@
         <v>189</v>
       </c>
       <c r="G54">
-        <f>_xll.TA_TYPPRICE(D54,E54,F54)</f>
         <v>190.06666666666669</v>
       </c>
       <c r="H54">
@@ -7229,7 +7176,6 @@
         <v>188</v>
       </c>
       <c r="G55">
-        <f>_xll.TA_TYPPRICE(D55,E55,F55)</f>
         <v>188.68333333333331</v>
       </c>
       <c r="H55">
@@ -7354,7 +7300,6 @@
         <v>186</v>
       </c>
       <c r="G56">
-        <f>_xll.TA_TYPPRICE(D56,E56,F56)</f>
         <v>186.93333333333331</v>
       </c>
       <c r="H56">
@@ -7479,7 +7424,6 @@
         <v>187</v>
       </c>
       <c r="G57">
-        <f>_xll.TA_TYPPRICE(D57,E57,F57)</f>
         <v>187.63333333333333</v>
       </c>
       <c r="H57">
@@ -7600,7 +7544,6 @@
         <v>187</v>
       </c>
       <c r="G58">
-        <f>_xll.TA_TYPPRICE(D58,E58,F58)</f>
         <v>187.41666666666666</v>
       </c>
       <c r="H58">
@@ -7721,7 +7664,6 @@
         <v>186</v>
       </c>
       <c r="G59">
-        <f>_xll.TA_TYPPRICE(D59,E59,F59)</f>
         <v>187.25</v>
       </c>
       <c r="H59">
@@ -7842,7 +7784,6 @@
         <v>186</v>
       </c>
       <c r="G60">
-        <f>_xll.TA_TYPPRICE(D60,E60,F60)</f>
         <v>187.08333333333334</v>
       </c>
       <c r="H60">
@@ -7963,7 +7904,6 @@
         <v>185</v>
       </c>
       <c r="G61">
-        <f>_xll.TA_TYPPRICE(D61,E61,F61)</f>
         <v>185.54999999999998</v>
       </c>
       <c r="H61">
@@ -8084,7 +8024,6 @@
         <v>186</v>
       </c>
       <c r="G62">
-        <f>_xll.TA_TYPPRICE(D62,E62,F62)</f>
         <v>187.79999999999998</v>
       </c>
       <c r="H62">
@@ -8205,7 +8144,6 @@
         <v>184</v>
       </c>
       <c r="G63">
-        <f>_xll.TA_TYPPRICE(D63,E63,F63)</f>
         <v>185.28333333333333</v>
       </c>
       <c r="H63">
@@ -8326,7 +8264,6 @@
         <v>183.6</v>
       </c>
       <c r="G64">
-        <f>_xll.TA_TYPPRICE(D64,E64,F64)</f>
         <v>184.43333333333331</v>
       </c>
       <c r="H64">
@@ -8447,7 +8384,6 @@
         <v>184.65</v>
       </c>
       <c r="G65">
-        <f>_xll.TA_TYPPRICE(D65,E65,F65)</f>
         <v>185.43333333333331</v>
       </c>
       <c r="H65">
@@ -8568,7 +8504,6 @@
         <v>185.35</v>
       </c>
       <c r="G66">
-        <f>_xll.TA_TYPPRICE(D66,E66,F66)</f>
         <v>186.03333333333333</v>
       </c>
       <c r="H66">
@@ -8689,14 +8624,13 @@
         <v>181.6</v>
       </c>
       <c r="G67">
-        <f>_xll.TA_TYPPRICE(D67,E67,F67)</f>
         <v>183.1</v>
       </c>
       <c r="H67">
         <v>184.40173610961278</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8640,42 @@
         <v>183.95105406737659</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>24.613742792144215</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>4.5</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8685,42 @@
         <v>186.88323355228565</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-1.8043441879613908</v>
       </c>
       <c r="Y67">
         <v>-1.6667401458811559</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -8810,7 +8744,6 @@
         <v>180.3</v>
       </c>
       <c r="G68">
-        <f>_xll.TA_TYPPRICE(D68,E68,F68)</f>
         <v>180.78333333333333</v>
       </c>
       <c r="H68">
@@ -8931,7 +8864,6 @@
         <v>176.5</v>
       </c>
       <c r="G69">
-        <f>_xll.TA_TYPPRICE(D69,E69,F69)</f>
         <v>177.28333333333333</v>
       </c>
       <c r="H69">
@@ -9052,7 +8984,6 @@
         <v>178.1</v>
       </c>
       <c r="G70">
-        <f>_xll.TA_TYPPRICE(D70,E70,F70)</f>
         <v>178.6</v>
       </c>
       <c r="H70">
@@ -9173,7 +9104,6 @@
         <v>179.55</v>
       </c>
       <c r="G71">
-        <f>_xll.TA_TYPPRICE(D71,E71,F71)</f>
         <v>179.05000000000004</v>
       </c>
       <c r="H71">
@@ -9294,7 +9224,6 @@
         <v>175.75</v>
       </c>
       <c r="G72">
-        <f>_xll.TA_TYPPRICE(D72,E72,F72)</f>
         <v>176.61666666666667</v>
       </c>
       <c r="H72">
@@ -9415,7 +9344,6 @@
         <v>169.7</v>
       </c>
       <c r="G73">
-        <f>_xll.TA_TYPPRICE(D73,E73,F73)</f>
         <v>170.56666666666666</v>
       </c>
       <c r="H73">
@@ -9536,7 +9464,6 @@
         <v>162.4</v>
       </c>
       <c r="G74">
-        <f>_xll.TA_TYPPRICE(D74,E74,F74)</f>
         <v>163.46666666666667</v>
       </c>
       <c r="H74">
@@ -9657,7 +9584,6 @@
         <v>164</v>
       </c>
       <c r="G75">
-        <f>_xll.TA_TYPPRICE(D75,E75,F75)</f>
         <v>164.46666666666667</v>
       </c>
       <c r="H75">
@@ -9778,7 +9704,6 @@
         <v>163</v>
       </c>
       <c r="G76">
-        <f>_xll.TA_TYPPRICE(D76,E76,F76)</f>
         <v>163.5</v>
       </c>
       <c r="H76">
@@ -9899,7 +9824,6 @@
         <v>184</v>
       </c>
       <c r="G77">
-        <f>_xll.TA_TYPPRICE(D77,E77,F77)</f>
         <v>178.56666666666669</v>
       </c>
       <c r="H77">
@@ -10020,7 +9944,6 @@
         <v>176.6</v>
       </c>
       <c r="G78">
-        <f>_xll.TA_TYPPRICE(D78,E78,F78)</f>
         <v>178.98333333333335</v>
       </c>
       <c r="H78">
@@ -10141,7 +10064,6 @@
         <v>176.3</v>
       </c>
       <c r="G79">
-        <f>_xll.TA_TYPPRICE(D79,E79,F79)</f>
         <v>178.58333333333334</v>
       </c>
       <c r="H79">
@@ -10262,7 +10184,6 @@
         <v>173</v>
       </c>
       <c r="G80">
-        <f>_xll.TA_TYPPRICE(D80,E80,F80)</f>
         <v>174.54999999999998</v>
       </c>
       <c r="H80">
@@ -10383,7 +10304,6 @@
         <v>173.5</v>
       </c>
       <c r="G81">
-        <f>_xll.TA_TYPPRICE(D81,E81,F81)</f>
         <v>174.76666666666665</v>
       </c>
       <c r="H81">
@@ -10504,7 +10424,6 @@
         <v>175.75</v>
       </c>
       <c r="G82">
-        <f>_xll.TA_TYPPRICE(D82,E82,F82)</f>
         <v>175.86666666666667</v>
       </c>
       <c r="H82">
@@ -10606,93 +10525,2687 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>176.7</v>
+      </c>
+      <c r="D83">
+        <v>181.15</v>
+      </c>
+      <c r="E83">
+        <v>176</v>
+      </c>
+      <c r="F83">
+        <v>177.6</v>
+      </c>
+      <c r="G83">
+        <v>178.25</v>
+      </c>
+      <c r="H83">
+        <v>176.90894600020511</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>179.63254834421815</v>
+      </c>
+      <c r="K83">
+        <v>172.52824602377405</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>59.574545982059711</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>5.1500000000000057</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.31067961165048397</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>175.2128155730247</v>
+      </c>
+      <c r="W83">
+        <v>177.86739750612864</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-2.6545819331039411</v>
+      </c>
+      <c r="Y83">
+        <v>-3.5088969820534062</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>176.8</v>
+      </c>
+      <c r="D84">
+        <v>180.15</v>
+      </c>
+      <c r="E84">
+        <v>174.4</v>
+      </c>
+      <c r="F84">
+        <v>175</v>
+      </c>
+      <c r="G84">
+        <v>176.51666666666665</v>
+      </c>
+      <c r="H84">
+        <v>176.71280633343588</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>179.74753760105855</v>
+      </c>
+      <c r="K84">
+        <v>172.94419135182426</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>49.89693199133248</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>5.75</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.10434782608695553</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>175.18007471563629</v>
+      </c>
+      <c r="W84">
+        <v>177.65499769085986</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-2.4749229752235635</v>
+      </c>
+      <c r="Y84">
+        <v>-3.3021021806874375</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>176</v>
+      </c>
+      <c r="D85">
+        <v>180.45</v>
+      </c>
+      <c r="E85">
+        <v>176</v>
+      </c>
+      <c r="F85">
+        <v>177.2</v>
+      </c>
+      <c r="G85">
+        <v>177.88333333333333</v>
+      </c>
+      <c r="H85">
+        <v>177.2980698333846</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>179.90364035637887</v>
+      </c>
+      <c r="K85">
+        <v>173.62325994030775</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>57.24327688310381</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>4.4499999999999886</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.26966292134831277</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>175.49083245169226</v>
+      </c>
+      <c r="W85">
+        <v>177.62129415820357</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-2.1304617065113121</v>
+      </c>
+      <c r="Y85">
+        <v>-3.0677740858522125</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>177.3</v>
+      </c>
+      <c r="D86">
+        <v>179.85</v>
+      </c>
+      <c r="E86">
+        <v>176.5</v>
+      </c>
+      <c r="F86">
+        <v>176.8</v>
+      </c>
+      <c r="G86">
+        <v>177.7166666666667</v>
+      </c>
+      <c r="H86">
+        <v>177.50736825002565</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>179.89172027718357</v>
+      </c>
+      <c r="K86">
+        <v>174.26253550912824</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>55.397231481603868</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>3.3499999999999943</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>8.9552238805973697E-2</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>175.69224284373959</v>
+      </c>
+      <c r="W86">
+        <v>177.56045755389221</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-1.8682147101526141</v>
+      </c>
+      <c r="Y86">
+        <v>-2.8278622107122926</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>178.7</v>
+      </c>
+      <c r="D87">
+        <v>181.8</v>
+      </c>
+      <c r="E87">
+        <v>177.2</v>
+      </c>
+      <c r="F87">
+        <v>178.35</v>
+      </c>
+      <c r="G87">
+        <v>179.11666666666667</v>
+      </c>
+      <c r="H87">
+        <v>178.31201745834616</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>180.31578243780945</v>
+      </c>
+      <c r="K87">
+        <v>174.91530539598864</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>61.423187420458468</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.1500000000000057</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>4.6000000000000227</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>176.10112856008735</v>
+      </c>
+      <c r="W87">
+        <v>177.61894217952982</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-1.5178136194424781</v>
+      </c>
+      <c r="Y87">
+        <v>-2.5658524924583297</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>178.7</v>
+      </c>
+      <c r="D88">
+        <v>182.6</v>
+      </c>
+      <c r="E88">
+        <v>177.2</v>
+      </c>
+      <c r="F88">
+        <v>178.1</v>
+      </c>
+      <c r="G88">
+        <v>179.29999999999998</v>
+      </c>
+      <c r="H88">
+        <v>178.80600872917307</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>180.82338634051845</v>
+      </c>
+      <c r="K88">
+        <v>175.42301530799116</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>59.794478257581275</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.16666666666666755</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>176.40864724315082</v>
+      </c>
+      <c r="W88">
+        <v>177.65457609215724</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-1.2459288490064182</v>
+      </c>
+      <c r="Y88">
+        <v>-2.3018677637679472</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>179.35</v>
+      </c>
+      <c r="D89">
+        <v>183.5</v>
+      </c>
+      <c r="E89">
+        <v>178.25</v>
+      </c>
+      <c r="F89">
+        <v>179.85</v>
+      </c>
+      <c r="G89">
+        <v>180.53333333333333</v>
+      </c>
+      <c r="H89">
+        <v>179.66967103125319</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>181.4181893759588</v>
+      </c>
+      <c r="K89">
+        <v>176.05123412843759</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>67.366090263612037</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>5.25</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.30476190476190368</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>176.93808612881992</v>
+      </c>
+      <c r="W89">
+        <v>177.81720008533077</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-0.87911395651084945</v>
+      </c>
+      <c r="Y89">
+        <v>-2.0173170023165277</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>179.5</v>
+      </c>
+      <c r="D90">
+        <v>184.75</v>
+      </c>
+      <c r="E90">
+        <v>178.5</v>
+      </c>
+      <c r="F90">
+        <v>181.95</v>
+      </c>
+      <c r="G90">
+        <v>181.73333333333335</v>
+      </c>
+      <c r="H90">
+        <v>180.70150218229327</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>182.15859173685683</v>
+      </c>
+      <c r="K90">
+        <v>176.59540432211813</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>74.554139586092887</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>3.4499999999999886</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>6.25</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.55199999999999816</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>177.70914980130917</v>
+      </c>
+      <c r="W90">
+        <v>178.1233334123433</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-0.41418361103413304</v>
+      </c>
+      <c r="Y90">
+        <v>-1.6966903240600488</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>183</v>
+      </c>
+      <c r="D91">
+        <v>186.45</v>
+      </c>
+      <c r="E91">
+        <v>180.6</v>
+      </c>
+      <c r="F91">
+        <v>180.95</v>
+      </c>
+      <c r="G91">
+        <v>182.66666666666666</v>
+      </c>
+      <c r="H91">
+        <v>181.68408442447998</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>183.11223801755531</v>
+      </c>
+      <c r="K91">
+        <v>177.48531447275855</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>65.912424465750647</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>5.8499999999999943</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>5.9829059829058916E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>178.20774213956929</v>
+      </c>
+      <c r="W91">
+        <v>178.33271612254009</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-0.12497398297080053</v>
+      </c>
+      <c r="Y91">
+        <v>-1.3823470558421991</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>182.15</v>
+      </c>
+      <c r="D92">
+        <v>183.4</v>
+      </c>
+      <c r="E92">
+        <v>177.5</v>
+      </c>
+      <c r="F92">
+        <v>177.9</v>
+      </c>
+      <c r="G92">
+        <v>179.6</v>
+      </c>
+      <c r="H92">
+        <v>180.64204221223997</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>183.17618512476525</v>
+      </c>
+      <c r="K92">
+        <v>177.48857792325666</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>45.711749576371446</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>6.7796610169492427E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>178.16039719502018</v>
+      </c>
+      <c r="W92">
+        <v>178.30066307642602</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-0.1402658814058384</v>
+      </c>
+      <c r="Y92">
+        <v>-1.133930820954927</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>179.6</v>
+      </c>
+      <c r="D93">
+        <v>182.9</v>
+      </c>
+      <c r="E93">
+        <v>178.1</v>
+      </c>
+      <c r="F93">
+        <v>178.35</v>
+      </c>
+      <c r="G93">
+        <v>179.78333333333333</v>
+      </c>
+      <c r="H93">
+        <v>180.21268777278664</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>183.1148106525952</v>
+      </c>
+      <c r="K93">
+        <v>177.62444949586629</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>48.616095751905874</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>5.2083333333333211E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>178.18956685732476</v>
+      </c>
+      <c r="W93">
+        <v>178.30431766335744</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-0.11475080603267429</v>
+      </c>
+      <c r="Y93">
+        <v>-0.93009481797047644</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>180</v>
+      </c>
+      <c r="D94">
+        <v>182.4</v>
+      </c>
+      <c r="E94">
+        <v>178.35</v>
+      </c>
+      <c r="F94">
+        <v>178.9</v>
+      </c>
+      <c r="G94">
+        <v>179.88333333333333</v>
+      </c>
+      <c r="H94">
+        <v>180.04801055305998</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>182.95596384090737</v>
+      </c>
+      <c r="K94">
+        <v>177.78568294122934</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>52.498576800777606</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>4.0500000000000114</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.1358024691358049</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>178.29886426389018</v>
+      </c>
+      <c r="W94">
+        <v>178.34844228088653</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-4.9578016996349561E-2</v>
+      </c>
+      <c r="Y94">
+        <v>-0.75399145777565102</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>179</v>
+      </c>
+      <c r="D95">
+        <v>182.25</v>
+      </c>
+      <c r="E95">
+        <v>176.75</v>
+      </c>
+      <c r="F95">
+        <v>177.8</v>
+      </c>
+      <c r="G95">
+        <v>178.93333333333331</v>
+      </c>
+      <c r="H95">
+        <v>179.49067194319665</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>182.7990829873724</v>
+      </c>
+      <c r="K95">
+        <v>177.55553117651172</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>44.157425509514546</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>5.5</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.19090909090909297</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>178.22211591559937</v>
+      </c>
+      <c r="W95">
+        <v>178.3078169267468</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-8.5701011147421013E-2</v>
+      </c>
+      <c r="Y95">
+        <v>-0.62033336845000497</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>178.1</v>
+      </c>
+      <c r="D96">
+        <v>179.8</v>
+      </c>
+      <c r="E96">
+        <v>175.85</v>
+      </c>
+      <c r="F96">
+        <v>177.5</v>
+      </c>
+      <c r="G96">
+        <v>177.71666666666667</v>
+      </c>
+      <c r="H96">
+        <v>178.60366930493166</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>182.13262010128966</v>
+      </c>
+      <c r="K96">
+        <v>177.17652424839801</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>41.888541521517567</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>1.6500000000000057</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>3.9500000000000171</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.41772151898734139</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>178.11102115935333</v>
+      </c>
+      <c r="W96">
+        <v>178.24797863587665</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-0.13695747652332102</v>
+      </c>
+      <c r="Y96">
+        <v>-0.52365819006466818</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>176.4</v>
+      </c>
+      <c r="D97">
+        <v>182</v>
+      </c>
+      <c r="E97">
+        <v>176.4</v>
+      </c>
+      <c r="F97">
+        <v>178.5</v>
+      </c>
+      <c r="G97">
+        <v>178.96666666666667</v>
+      </c>
+      <c r="H97">
+        <v>178.78516798579915</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>182.10314896766974</v>
+      </c>
+      <c r="K97">
+        <v>177.00396330430956</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>52.135808104088568</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.37499999999999939</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>178.17086405791434</v>
+      </c>
+      <c r="W97">
+        <v>178.26664688507097</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-9.5782827156625672E-2</v>
+      </c>
+      <c r="Y97">
+        <v>-0.43808311748305967</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>179.8</v>
+      </c>
+      <c r="D98">
+        <v>181</v>
+      </c>
+      <c r="E98">
+        <v>177.35</v>
+      </c>
+      <c r="F98">
+        <v>178</v>
+      </c>
+      <c r="G98">
+        <v>178.78333333333333</v>
+      </c>
+      <c r="H98">
+        <v>178.78425065956623</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>181.85800475263201</v>
+      </c>
+      <c r="K98">
+        <v>177.08086034779632</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>46.960255495301226</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>3.6500000000000057</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.17808219178082318</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>178.14457727977367</v>
+      </c>
+      <c r="W98">
+        <v>178.2468952639546</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-0.10231798418092808</v>
+      </c>
+      <c r="Y98">
+        <v>-0.37093009082263334</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>178.8</v>
+      </c>
+      <c r="D99">
+        <v>182.3</v>
+      </c>
+      <c r="E99">
+        <v>178.05</v>
+      </c>
+      <c r="F99">
+        <v>179.75</v>
+      </c>
+      <c r="G99">
+        <v>180.03333333333333</v>
+      </c>
+      <c r="H99">
+        <v>179.40879199644979</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>181.95622591871378</v>
+      </c>
+      <c r="K99">
+        <v>177.2962247149527</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>63.020694848824036</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>4.25</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.3999999999999973</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>178.39156539057771</v>
+      </c>
+      <c r="W99">
+        <v>178.35823635551353</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>3.3329035064184609E-2</v>
+      </c>
+      <c r="Y99">
+        <v>-0.29007826564526973</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>180.3</v>
+      </c>
+      <c r="D100">
+        <v>199.7</v>
+      </c>
+      <c r="E100">
+        <v>179.45</v>
+      </c>
+      <c r="F100">
+        <v>188.5</v>
+      </c>
+      <c r="G100">
+        <v>189.21666666666667</v>
+      </c>
+      <c r="H100">
+        <v>184.31272933155822</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>185.89928682566628</v>
+      </c>
+      <c r="K100">
+        <v>177.77484144496322</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>87.215454435834729</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>9.0500000000000114</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>20.25</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.44691358024691413</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>179.94670917664268</v>
+      </c>
+      <c r="W100">
+        <v>179.10947810695697</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>0.83723106968571415</v>
+      </c>
+      <c r="Y100">
+        <v>-6.4616398579072976E-2</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>189.4</v>
+      </c>
+      <c r="D101">
+        <v>190.85</v>
+      </c>
+      <c r="E101">
+        <v>183.5</v>
+      </c>
+      <c r="F101">
+        <v>184.95</v>
+      </c>
+      <c r="G101">
+        <v>186.43333333333331</v>
+      </c>
+      <c r="H101">
+        <v>185.37303133244575</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>186.99944530885156</v>
+      </c>
+      <c r="K101">
+        <v>179.04709890163807</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>65.486281050081089</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>7.3499999999999943</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.19727891156462446</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>180.71644622638996</v>
+      </c>
+      <c r="W101">
+        <v>179.54210935829349</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>1.174336868096475</v>
+      </c>
+      <c r="Y101">
+        <v>0.1831742547560366</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>183.2</v>
+      </c>
+      <c r="D102">
+        <v>194.8</v>
+      </c>
+      <c r="E102">
+        <v>180.6</v>
+      </c>
+      <c r="F102">
+        <v>182.6</v>
+      </c>
+      <c r="G102">
+        <v>186</v>
+      </c>
+      <c r="H102">
+        <v>185.68651566622287</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>188.73290190688456</v>
+      </c>
+      <c r="K102">
+        <v>179.39218803460739</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>54.293305334347863</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>14.200000000000017</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.14084507042253505</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>181.00622373002227</v>
+      </c>
+      <c r="W102">
+        <v>179.76861977619768</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>1.2376039538245891</v>
+      </c>
+      <c r="Y102">
+        <v>0.39406019456974711</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>182.85</v>
+      </c>
+      <c r="D103">
+        <v>183.5</v>
+      </c>
+      <c r="E103">
+        <v>175.85</v>
+      </c>
+      <c r="F103">
+        <v>177.7</v>
+      </c>
+      <c r="G103">
+        <v>179.01666666666665</v>
+      </c>
+      <c r="H103">
+        <v>182.35159116644476</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>187.57003481646578</v>
+      </c>
+      <c r="K103">
+        <v>178.60503513802797</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>37.560604727029521</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>1.8499999999999943</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>7.6500000000000057</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.24183006535947621</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>180.49757392540346</v>
+      </c>
+      <c r="W103">
+        <v>179.61538868166451</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>0.88218524373894525</v>
+      </c>
+      <c r="Y103">
+        <v>0.49168520440358676</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>180.5</v>
+      </c>
+      <c r="D104">
+        <v>195.8</v>
+      </c>
+      <c r="E104">
+        <v>180.5</v>
+      </c>
+      <c r="F104">
+        <v>186.25</v>
+      </c>
+      <c r="G104">
+        <v>187.51666666666665</v>
+      </c>
+      <c r="H104">
+        <v>184.93412891655572</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>189.39891596836227</v>
+      </c>
+      <c r="K104">
+        <v>179.02613844068841</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>62.660375401411287</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>5.75</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>15.300000000000011</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.37581699346405201</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>181.38256255226446</v>
+      </c>
+      <c r="W104">
+        <v>180.1068413719116</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>1.2757211803528605</v>
+      </c>
+      <c r="Y104">
+        <v>0.64849239959344152</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>188.65</v>
+      </c>
+      <c r="D105">
+        <v>191.75</v>
+      </c>
+      <c r="E105">
+        <v>180.8</v>
+      </c>
+      <c r="F105">
+        <v>181.45</v>
+      </c>
+      <c r="G105">
+        <v>15852</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
